--- a/data/lat_long_cities_info/latlong.xlsx
+++ b/data/lat_long_cities_info/latlong.xlsx
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5301,10 +5301,10 @@
         <v>496</v>
       </c>
       <c r="B247">
-        <v>51.752000000000002</v>
+        <v>52</v>
       </c>
       <c r="C247">
-        <v>1.2577</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D247" t="s">
         <v>494</v>
